--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Insr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.24970257127784</v>
+        <v>13.24090133333333</v>
       </c>
       <c r="H2">
-        <v>5.24970257127784</v>
+        <v>39.722704</v>
       </c>
       <c r="I2">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="J2">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N2">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O2">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P2">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q2">
-        <v>91.71613125348131</v>
+        <v>244.2262138628107</v>
       </c>
       <c r="R2">
-        <v>91.71613125348131</v>
+        <v>2198.035924765296</v>
       </c>
       <c r="S2">
-        <v>0.07479161877052236</v>
+        <v>0.06427833009583067</v>
       </c>
       <c r="T2">
-        <v>0.07479161877052236</v>
+        <v>0.06427833009583067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.24970257127784</v>
+        <v>13.24090133333333</v>
       </c>
       <c r="H3">
-        <v>5.24970257127784</v>
+        <v>39.722704</v>
       </c>
       <c r="I3">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="J3">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N3">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O3">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P3">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q3">
-        <v>41.99926798129368</v>
+        <v>106.308124916224</v>
       </c>
       <c r="R3">
-        <v>41.99926798129368</v>
+        <v>956.773124246016</v>
       </c>
       <c r="S3">
-        <v>0.03424908134007986</v>
+        <v>0.02797942381841257</v>
       </c>
       <c r="T3">
-        <v>0.03424908134007986</v>
+        <v>0.02797942381841257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.24970257127784</v>
+        <v>13.24090133333333</v>
       </c>
       <c r="H4">
-        <v>5.24970257127784</v>
+        <v>39.722704</v>
       </c>
       <c r="I4">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="J4">
-        <v>0.1414724589329536</v>
+        <v>0.1214410874295642</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.5758016813488</v>
+        <v>8.374233</v>
       </c>
       <c r="N4">
-        <v>7.5758016813488</v>
+        <v>25.122699</v>
       </c>
       <c r="O4">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194523</v>
       </c>
       <c r="P4">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194524</v>
       </c>
       <c r="Q4">
-        <v>39.77070556606778</v>
+        <v>110.882392895344</v>
       </c>
       <c r="R4">
-        <v>39.77070556606778</v>
+        <v>997.9415360580961</v>
       </c>
       <c r="S4">
-        <v>0.03243175882235141</v>
+        <v>0.02918333351532098</v>
       </c>
       <c r="T4">
-        <v>0.03243175882235141</v>
+        <v>0.02918333351532098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.8578914500134</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H5">
-        <v>31.8578914500134</v>
+        <v>15.811511</v>
       </c>
       <c r="I5">
-        <v>0.8585275410670464</v>
+        <v>0.04833928449947708</v>
       </c>
       <c r="J5">
-        <v>0.8585275410670464</v>
+        <v>0.04833928449947708</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N5">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O5">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P5">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q5">
-        <v>556.5805898556588</v>
+        <v>97.21355995755434</v>
       </c>
       <c r="R5">
-        <v>556.5805898556588</v>
+        <v>874.9220396179891</v>
       </c>
       <c r="S5">
-        <v>0.4538739556786181</v>
+        <v>0.02558580914763148</v>
       </c>
       <c r="T5">
-        <v>0.4538739556786181</v>
+        <v>0.02558580914763148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.8578914500134</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H6">
-        <v>31.8578914500134</v>
+        <v>15.811511</v>
       </c>
       <c r="I6">
-        <v>0.8585275410670464</v>
+        <v>0.04833928449947708</v>
       </c>
       <c r="J6">
-        <v>0.8585275410670464</v>
+        <v>0.04833928449947708</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N6">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O6">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P6">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q6">
-        <v>254.8731289365961</v>
+        <v>42.315651182816</v>
       </c>
       <c r="R6">
-        <v>254.8731289365961</v>
+        <v>380.840860645344</v>
       </c>
       <c r="S6">
-        <v>0.2078410159014697</v>
+        <v>0.01113713123553956</v>
       </c>
       <c r="T6">
-        <v>0.2078410159014697</v>
+        <v>0.01113713123553956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.270503666666666</v>
+      </c>
+      <c r="H7">
+        <v>15.811511</v>
+      </c>
+      <c r="I7">
+        <v>0.04833928449947708</v>
+      </c>
+      <c r="J7">
+        <v>0.04833928449947708</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.374233</v>
+      </c>
+      <c r="N7">
+        <v>25.122699</v>
+      </c>
+      <c r="O7">
+        <v>0.2403085655194523</v>
+      </c>
+      <c r="P7">
+        <v>0.2403085655194524</v>
+      </c>
+      <c r="Q7">
+        <v>44.136425732021</v>
+      </c>
+      <c r="R7">
+        <v>397.227831588189</v>
+      </c>
+      <c r="S7">
+        <v>0.01161634411630603</v>
+      </c>
+      <c r="T7">
+        <v>0.01161634411630604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>90.52007366666668</v>
+      </c>
+      <c r="H8">
+        <v>271.560221</v>
+      </c>
+      <c r="I8">
+        <v>0.8302196280709587</v>
+      </c>
+      <c r="J8">
+        <v>0.8302196280709586</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>18.444833</v>
+      </c>
+      <c r="N8">
+        <v>55.33449900000001</v>
+      </c>
+      <c r="O8">
+        <v>0.529296397589589</v>
+      </c>
+      <c r="P8">
+        <v>0.5292963975895891</v>
+      </c>
+      <c r="Q8">
+        <v>1669.627641929365</v>
+      </c>
+      <c r="R8">
+        <v>15026.64877736428</v>
+      </c>
+      <c r="S8">
+        <v>0.4394322583461269</v>
+      </c>
+      <c r="T8">
+        <v>0.4394322583461269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>31.8578914500134</v>
-      </c>
-      <c r="H7">
-        <v>31.8578914500134</v>
-      </c>
-      <c r="I7">
-        <v>0.8585275410670464</v>
-      </c>
-      <c r="J7">
-        <v>0.8585275410670464</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.5758016813488</v>
-      </c>
-      <c r="N7">
-        <v>7.5758016813488</v>
-      </c>
-      <c r="O7">
-        <v>0.2292443283093101</v>
-      </c>
-      <c r="P7">
-        <v>0.2292443283093101</v>
-      </c>
-      <c r="Q7">
-        <v>241.3490676112391</v>
-      </c>
-      <c r="R7">
-        <v>241.3490676112391</v>
-      </c>
-      <c r="S7">
-        <v>0.1968125694869587</v>
-      </c>
-      <c r="T7">
-        <v>0.1968125694869587</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>90.52007366666668</v>
+      </c>
+      <c r="H9">
+        <v>271.560221</v>
+      </c>
+      <c r="I9">
+        <v>0.8302196280709587</v>
+      </c>
+      <c r="J9">
+        <v>0.8302196280709586</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.028767999999999</v>
+      </c>
+      <c r="N9">
+        <v>24.086304</v>
+      </c>
+      <c r="O9">
+        <v>0.2303950368909585</v>
+      </c>
+      <c r="P9">
+        <v>0.2303950368909585</v>
+      </c>
+      <c r="Q9">
+        <v>726.764670812576</v>
+      </c>
+      <c r="R9">
+        <v>6540.882037313184</v>
+      </c>
+      <c r="S9">
+        <v>0.1912784818370064</v>
+      </c>
+      <c r="T9">
+        <v>0.1912784818370064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>90.52007366666668</v>
+      </c>
+      <c r="H10">
+        <v>271.560221</v>
+      </c>
+      <c r="I10">
+        <v>0.8302196280709587</v>
+      </c>
+      <c r="J10">
+        <v>0.8302196280709586</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.374233</v>
+      </c>
+      <c r="N10">
+        <v>25.122699</v>
+      </c>
+      <c r="O10">
+        <v>0.2403085655194523</v>
+      </c>
+      <c r="P10">
+        <v>0.2403085655194524</v>
+      </c>
+      <c r="Q10">
+        <v>758.0361880618311</v>
+      </c>
+      <c r="R10">
+        <v>6822.325692556479</v>
+      </c>
+      <c r="S10">
+        <v>0.1995088878878253</v>
+      </c>
+      <c r="T10">
+        <v>0.1995088878878253</v>
       </c>
     </row>
   </sheetData>
